--- a/biology/Virologie/Herpangine/Herpangine.xlsx
+++ b/biology/Virologie/Herpangine/Herpangine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herpangine est une stomatite aiguë fébrile due au virus Coxsackie A. Elle touche principalement les enfants, par épidémies survenant en période estivale. L'herpangine est généralement sans gravité et ne nécessite aucun traitement spécifique.  
 </t>
@@ -511,7 +523,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est clinique.
 Les prélèvements  ne sont pas utiles.
@@ -548,7 +562,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à ce que son nom laisse penser, l'herpangine n'est pas due au virus de l'herpès (Herpès simplex virus) mais à un virus de la famille Coxsackie (Virus du groupe Coxsackie de type A) appartenant au genre entérovirus. Le Coxsackie de type A est également responsable du syndrome main-pied-bouche. Les défenses immunitaires naturelles conduisent  à un développement auto limitant. La maladie régresse et guérit, le plus souvent, en moins d'une semaine. 
 </t>
@@ -579,7 +595,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herpangine est une infection virale bénigne ne nécessitant aucun traitement spécifique. 
 Souvent, pour soulager les symptômes, des antidouleurs sont prescrits.
@@ -611,9 +629,11 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'herpangine est aussi appelée herpangine de Zahorsky du nom de J. Zahorsky, pédiatre américain d'origine polonaise du début du XXe siècle[1]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'herpangine est aussi appelée herpangine de Zahorsky du nom de J. Zahorsky, pédiatre américain d'origine polonaise du début du XXe siècle. 
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Angine herpétique</t>
         </is>
